--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/79_Yalova_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/79_Yalova_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{492D4ADC-3C70-4365-86F5-94071BC7A2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8524BB-3665-4A43-BE7C-637CEC4C5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{141DE101-CD93-4F64-B65C-6410E7CDBB7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38F1D3BE-6AA4-4FAE-87DF-1D912E7EFCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{B260E0C5-942C-4B84-BEEA-51A767A97716}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{DED8028D-7283-450E-A995-784E960B2153}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{EF1B29FA-FD38-4B02-968B-D602A421A543}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{BC2326E7-A7E2-4A54-9363-6F13C26020F5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{9F43A0C8-ABBF-4FF0-A27B-AB5B2A3C19F1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{62230641-90E4-4157-9CCB-41D0F45F5865}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{86B08CD0-DBEA-4476-B4F5-45DE5F05CD82}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{30EF53DD-3EDB-41FE-B17B-03CAF4602EFE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB22C70-93C5-4B3B-AA57-B315DCB5FF16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77336119-49E1-45C4-9331-78C02112BD8E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2427,18 +2427,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2B89E514-3B77-441C-8DAA-65B464B89A44}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{91F09123-BA5D-4389-918B-AF15F36F1768}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{992F78F7-99FB-46BB-AA09-D9C12382DCE9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80C184AD-8D69-4968-884C-67FE2F0AA3A9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7C1870F3-EC75-4DE1-B00E-1E94FBB41ACA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DEDFBFA5-5106-4D01-90C1-057ED5E3AC58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6B66284E-A184-48EF-9023-06024245B301}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EC41B34F-BC55-4C38-BF8F-0912EAD600C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BCA04690-8BDB-4A05-84EB-3348733BC2FE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{067C4A3B-9316-4A27-8D2E-763EC542AFF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D49329F1-1D87-4E82-AA8B-EF5661F628EE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5274AFE3-70F8-408C-B69B-64D4FCB1E85A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D092942D-D0F7-45AD-B475-4428786D9588}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3840AFC4-F60D-4016-BD09-032C748A8EDF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B5C8C5A0-8802-4B15-B794-35E689D439D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9C890F56-A64F-4999-A454-6D34A4934B94}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9D14D43D-A640-48EB-A1E8-CD3568ED3795}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{78A5A525-2910-4388-9413-19351DFC7DEE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EB0741D2-AC1B-416C-928D-97094FA264DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{713E3C17-D4E3-4E81-A6E9-253A630AA471}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A7B94B15-469E-4DC5-8735-2EB1226F9354}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7D8355B0-E6B1-427C-9300-F744F0979E6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F1C4F9B1-D967-4A0E-9762-AF8230ECBD35}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CB00C632-79EE-494F-9937-51D8BBD6CFC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2451,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E6F45-6D49-40A9-B57D-2D87297C4A8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2938D618-2C2F-468B-AA32-086E196960AB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3626,18 +3626,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{02ADA8AB-0FD4-4402-99D1-79B9DAEC4635}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{67FF9C50-F92E-4E6B-B881-F613160F0F03}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5AEB30D5-D801-422F-91F0-5D36D1E3FEEB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8B68D7D0-4857-4B8B-9BFD-EBBC3C196686}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9EADD6DC-8907-4322-9086-C8F36ADB4BD3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C4E17DB8-160A-4A0B-82CC-633D520FF8FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E4430CFE-29B4-4C36-A2D6-87EDB796FB3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3A38979B-C7BD-4949-A7A2-71F71CB643AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7A939473-1925-4980-8365-3D0E3BA186BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{81874619-0153-4686-AA99-94D8D90878DB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BA7FC73B-23C6-440B-9B8C-2E578DB5CD8B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2F02D1E0-0D2B-493D-AB93-481D04634D61}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C15A8FC6-07D5-49FD-BEF6-253ADE2F7165}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CD85D21A-29AD-4FD9-AA99-BD4CB18FD94F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A5D5B19A-0659-4BE5-B49D-356D3AE10C0F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E23DE41F-1789-4725-89AF-90F8655D0365}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{007BE177-9BA2-450C-8A1E-1885DAF9612A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4BBD612F-F165-4220-A8C6-67D577D113E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AB9BD2B5-9964-403B-A3D5-3F2841E255CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7F8A1A8A-F554-4855-8D61-FF0EEC620DE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DB89866B-9715-4FD0-BB75-B6B134100851}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1CC9A303-9DE3-436B-862E-78699DD4A3E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5E16990D-BB44-4CEF-A792-3DAE7D583673}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6FB1F403-24C9-4E77-9DB8-744794B85708}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3650,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2964DCC7-9A8A-4B4C-B5C4-250277202218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDB2AB4-B6F9-4133-9F64-1D312E72639D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4825,18 +4825,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{74A553A5-E721-44A4-BC3F-385EE0AA9BD8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{55132236-B532-43C4-BC5E-B8BA50300C41}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4D2D0237-1A11-4F3A-99AE-663D276AEE6D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F50C642E-2C1C-4930-BB42-582B4DAB5310}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{13BD92B4-D31D-4CB9-ADAB-F02A551CB957}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{55328717-8022-433B-852F-967B80B7D3B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{514F299A-679D-4CE4-A0C8-5B54E226899C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{89A2A79F-6EF0-48E0-AB6D-0C86D70DD03F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8299D5C7-3C5A-40FE-8DD3-76B37725D213}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E05DD85A-37FF-44F2-A0BB-39CCC26BFA2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2BD51A4-CEFC-4CC6-BFDC-3F0BF71D67A0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1D1DF3E7-9B41-411C-B356-D13B9E5EF7A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C3DB5DF5-4BF9-4943-8F77-9750304B722C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{51EF8610-B254-466A-954B-FD06800608C7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B0549B16-052C-42F3-BA86-35F3E9AE1A6D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B12F798-EDAC-4983-92D8-CC9E39B48CB4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{47423965-4EDA-4F84-99BB-9173D81209CB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C7CB2DAE-C78B-47A9-8742-503F59D26750}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{07CD2259-4FEC-42A7-BDA1-BAC8799C59D5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{25FD445B-1056-4005-AA8F-7D06ABEC2E75}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5B9C008E-4D79-4802-86A0-B5C9395CC81B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{465D51CF-F4A1-45C6-8763-23BD30C5538E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D2EA1F64-6A26-4AD0-A1A4-EDE56826B00B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5CFA4B87-2CA5-4EA3-A63F-9917B76378E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4849,7 +4849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AC2F02-8449-4C59-B204-A959E74E9A06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DA02D-F17E-4B2D-AFB8-2954D6904A06}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6014,18 +6014,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FF79D875-98CF-4D4C-B622-366F7A96A89F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F2B9265A-8A6B-469D-86EA-9063C127F9DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6670FFC5-2D42-4105-9ED9-A409315FF4BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{26F5C3D7-E421-45A7-8D9A-FAC4AD23D4B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4E7220DB-D0EA-4A50-A4EA-67D829F079FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{599C3153-8F3F-45E6-A573-58055DA0AB21}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{29F97B53-3C66-4B8D-9B7E-BDC14F02AAC2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3441EBD5-FCA8-4698-980D-449D80620FAF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5BAE0FCC-A385-400F-A993-D5C4CBE65AE6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4D492470-8029-47C4-BD10-C6C51AF2093C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{69862D1B-B25B-4F3B-9131-31E09729A7BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC3C56DD-FAB7-455C-808A-D65948799A68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{598CE688-2D1A-4849-B358-C27BE197D10A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2C2782E3-E005-415F-AF04-56A939223B2E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7BE5AE5-285D-4977-919B-F499442FAC81}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C031998C-456E-4B9D-9B53-6DA9C3DBEDD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1192C111-47D8-476A-830E-864B6C44B663}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CFDE555E-5378-4642-BF7A-163CD2EC8EF6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{57B99B52-82E3-4EF6-955F-A0FF6CE4F3F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{11994D68-7F52-48C3-B386-1F13DB465D72}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C72B6986-C632-40CE-8D94-5E1464F03ADC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8957A080-7D01-4CB7-89AF-EA44CE1373AC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1BA17FCE-FF79-4569-9E86-D5FAF67B4677}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7D918F21-62F9-4CD6-85ED-9F264DACEF2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6038,7 +6038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70231B8A-783C-447F-B64E-27E53767C162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32916DB5-F655-4C55-B753-A44BE8A95857}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7221,18 +7221,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0CCA0C2C-E3F1-49F4-9AD1-2D219524CF5A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0D79F6A3-BEB7-445F-A4AA-B3BB2B1F37A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{13BAEE8D-4E87-49DA-AE7C-65FFE0952EE0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FBEC170B-DF09-4AB6-A651-E99DD6EE032A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{21889A0B-F842-4B00-AFB8-BBC1CBC8AF43}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{51E2F42B-6255-4706-98AA-00B35F5D7B4E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{926A2A48-87BA-494F-A6C3-808FED1472FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DEEA4457-748F-4491-96BC-98070466A668}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E306E455-A70B-45A8-9415-0ACBC7613869}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{23595D00-0A93-4093-8470-D64EBDD45077}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6DAFD48A-3ACF-4403-B029-7B8B9FDC410F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9F21503A-A9CC-452C-B025-2BBCD91E7798}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{70BD6C2F-6492-42ED-BE17-8E81A209CE6E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6172574D-E519-41D8-9AE6-24885ED1DB2D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FEEF7CDD-059D-4039-9938-6C914662084F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DB9717E7-720B-4E46-9037-655C83E00C17}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E717CE5D-4552-4C85-B521-A10717818E79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6E3D58D7-C0C5-403A-BD4B-EC778C9D6918}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{75C6651C-5209-4D99-8B79-EA2919BAAEC8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F157FD4E-546F-4D98-B65F-B9C8372BB1EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BFB9C1B4-1AAF-4373-9059-FC2DFFC41C7E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ECFDC6DD-78A4-469F-9C43-9E5DC26B74FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4257B261-5D5F-4563-AAFC-E0EB66E09E93}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BC9F7629-A0A5-475A-826C-E283282E7149}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7245,7 +7245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797FB1FC-FED7-4CC2-8482-8564F08DD92E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FFF3E9-A4D9-4664-A9C7-73FB872383BF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8428,18 +8428,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D9B59A86-D0CA-4D8A-A8BC-5C2CB20E46EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ECFE1346-89FE-4BD7-90D8-55E56F71123F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0B96F9E7-6A14-4264-966F-FA24F979DD94}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{85C84510-5E44-44B0-AA2F-EA4EA5478939}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AE0B750D-6AE6-4A2B-B1C9-72445F3E9D17}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5CA550D2-F6D5-47A3-9550-2B9599A90025}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E4DF2D66-A9FC-4237-BEA8-399C5E302EE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DCF16382-264E-4792-A57B-6B42925452E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{46CE80AC-D0BB-4D32-A864-DBA4A4154CBE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{047E07C5-15FF-40D5-B52F-CD851463C808}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C63880DC-BF99-4A5C-87C6-88815F1F99B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CFBF67AD-9283-4081-AE56-202F500E1860}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9B186CC5-1012-40DB-8323-B83B36F9550A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A1A974E-FE90-4401-9FD7-02FEBE09C96E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E3B6D5DE-C7FF-4238-9416-60227A8F07B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FAF10042-A165-4DF8-8247-E4A865E807C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{64CC065C-FF3B-48A5-9BF2-4B11119B2657}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C49D4429-FC79-4AB0-A1D6-C6623EB42256}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{03FFDD31-39AB-42E2-A95E-BE63C2178DCE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EBBA464C-D1C8-4EF6-99DD-C18DD188A410}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7C45D3ED-DE64-4CD8-9044-27BCB40A507A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1E72515B-0515-45B7-B125-106C977E35F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D43107F8-7479-466B-8FAE-4D03F8DDD8CA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E20F363A-4888-491D-8DD5-738E29D5914D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8452,7 +8452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B701427-7CD3-4B2D-A325-5C43C3BA402A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1139484D-C2A0-49C8-BC99-AC2ABEAFE234}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9637,18 +9637,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FBA7764E-C427-4554-AE04-C3DCD2054F5E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C31129EE-6520-440E-8A37-BC9FF8547911}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E71446F5-23F1-4C4C-AE27-6076A3004397}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{27983A92-C619-47C1-8606-E84342193C2B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AC3A9AAB-DC3C-455F-8053-049FBA0DC587}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5E66EEB9-0D22-4A17-9226-4B247E7178AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{612D8891-5C33-4D7D-9F7C-435848BE4883}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{263BE029-4CEC-4426-9538-6BABF91E8026}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1DEAFADD-6E74-4F2A-9EDC-868985D1F991}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C77E9718-257B-4D09-A7D3-92E9B7D9FA05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{99CCEC11-524A-4E21-A5A6-52A7166FFBAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4246054F-746B-4208-AECE-E777AEC01D58}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8F56A582-C20D-4D9B-A99A-9A2750AE52B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{217EA1CA-EDE3-4A37-A510-2AF26B862B46}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6347DD5E-07CD-44EA-962C-0E066CB78B0F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BF16E7DE-D925-4B78-9861-24F15C166536}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DF6E0BC2-61F5-4870-8D8A-EE79F87584C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{246B46DF-6637-413E-94A4-87356D9070DC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8B9636AF-29D2-4499-8934-61D7B4DECCCD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{514AA10C-D4F1-40B7-BFAA-C57B611EF3BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{689733D4-AC5A-4702-B94D-1D50C215311D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6B834660-4527-4733-B106-1463EFD2BA96}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2B2AADB-52EA-445B-AFF1-5F77BB70179F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{75C595D4-A609-40D4-8107-999506960E2E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9661,7 +9661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5E03A1-5BEE-4F4C-8C3B-E5FC8DEE8E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0C6469-F876-47A4-90EE-C82FBAF2493D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10840,18 +10840,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0259B57B-2DBD-45D4-B166-D0653B57EEA5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{700C398A-19A8-4C3F-B8E2-D964CA95196B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{998E068A-76A4-4421-B509-54AA02E0A40F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0C1D6FB7-FE2D-4C07-BBF2-852CE52495E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F2D367A-8966-4501-98C6-7DAF09FE760A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{930EB615-17A6-483F-94EE-496FC9C9E51C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9458F6B0-23F5-4C30-8D92-5181CCAFB07B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{66FCB727-7EFF-443A-9F8F-C9653C7860B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B31C26BA-C25A-4E30-8F52-C43755439F08}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{13347897-C59B-41D1-B3C3-9C161A9C671D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{795C48AC-D174-4181-A5C0-65D1E168572C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CBFC80F8-CB20-4885-A841-628D6A56B41A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7DE25324-6197-4C8D-8317-F91DAFA3B063}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1CA52576-657C-4287-9F4F-C99A20406EC1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CA1FC555-816C-4CAF-8711-342898FE2415}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3AF49FAE-4B08-4DE3-A3E4-F0583BD65560}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9AF65388-5656-491A-AF1F-FA535090ED30}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0EBF0941-157B-4CBE-BFF9-E870820052EC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4877D382-4EF8-4FE9-818C-D158E067B8BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C0C3C43F-1712-40A9-8646-26851211DFB7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FE7EE20C-C38A-4CE5-B65D-127D483E2812}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5D3F400A-F4B1-4C71-8057-28FD6F1DC7F5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8A9E50D-BE0F-46A1-BE2C-9B89D259D61E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5BF76C57-84A7-4D00-99B5-0B937B51A0AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10864,7 +10864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1972661C-BBE5-4D84-B75E-7EB2C9F079FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47ECA560-B24E-45EC-AF14-B6277F896596}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12043,18 +12043,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{67969200-4D1A-4963-89F4-E66F98973A37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2254273E-6272-4F08-B2B2-61AB8FD7031E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1AF1CBFD-5B2C-48FA-9485-5C5C5A03057B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ABA8585D-D67C-47FA-9095-CDA2609100A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E6A581B7-B1C9-46C8-AAB3-F7FDDDDAE7CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{13A5937C-C288-4385-9057-1002ADC3A242}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EDCA9999-A351-477E-A7D2-F132EAFA47DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C28FDD56-45CB-4CA9-9EA9-66283C606376}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{937C0FDE-1114-415B-88CE-3477A49619C9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0FB42BA5-8490-4285-80AD-ECE4F24F98CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{30EF48E0-AC13-4287-AC62-57475D90FE4A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B2DE5942-D63A-4838-ACC5-8DFB747EB6BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DD9E6397-D85E-4642-BF36-ACDCAC0FEC72}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E445DA02-FB7F-43A7-B137-F5219744D071}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FCA53DDA-3DA3-4F37-838B-B9DF8715BF5A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{979B4436-9CCA-46E0-BE08-F83A436989CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DD5E3A36-8E4D-44CA-B583-32750758EB38}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{212C9CC8-14AC-4D2C-A644-5F365DE000F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E01DAF1E-119B-4468-8B13-0879F889621D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E1C91ADC-86FD-4A1A-9B92-F331D4BC8789}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1DCA8B87-1D7E-4F13-B045-C8C40D02240F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{22984397-B271-4AB9-BC31-D6D8CC0A0408}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F6E9C89E-D01D-43B0-BA85-5C575C29F150}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5F6CE39F-C9F4-4663-9CC1-30D13B354649}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12067,7 +12067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC83AE04-CB3E-48D7-AA17-E3B09C58E61F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C484289B-4B33-40A6-B645-F3F910F1FF4F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13242,18 +13242,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C3205A93-6D8F-4613-BAB6-915FEB2491F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{813F798F-EC31-427B-8836-0220CA40EF17}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F385C87E-CBE1-499F-90C9-C3BE680F41EB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EB370849-BC64-4642-B035-23FC6ADD4330}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3F43C9D3-069A-4222-BE5D-85058837F9FC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B0262F4C-F2F9-42A8-A1A9-4A6A74774AF8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{932C957E-EB01-4266-8329-EFE428B6B2AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C33DA8B5-AD8B-40EA-9321-9D0EE78B4C66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7512BD0D-E102-4BDD-B07C-37FD0FA59F04}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{077FBB5E-2837-42F0-8BA2-8D77257C2630}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A456A88E-EAF6-4579-BB85-B2EDB5D0685B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{542F6B1C-066A-4331-9445-FC7B160A9A30}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5FEC0C8B-54D1-45AA-A5C4-E78D3A3B7A75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B03D92EB-7480-4BF5-93A1-B9EE9F63BE9C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FD7632EB-7419-47B0-8B5E-8E11A0DC4ADA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2E06D2D6-031C-4647-B7B7-2C5C146C3CBD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{91A0CE45-16F9-43E4-B291-149C68872603}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{472DBEFC-15E6-44B9-A8ED-5E19139D960C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EBA9FB4A-CDF9-4F04-A774-8C7844C4AD98}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{25340D60-66A4-4F31-8C1D-FA01D237ED54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E147EEA2-E525-4313-96FF-908E4C8A42CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A64B61C9-56A5-439E-9FA0-E9AF8950C82F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A4EFDEA4-A4F3-4FAC-BB38-4EDA45E5AF67}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0347F68D-C078-4768-8D4E-94DAA664A4A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13266,7 +13266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439E981D-8FC4-4377-BA99-3E6533822721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE6A447-4FAB-4A48-BE94-7A4D95FF28AC}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14441,18 +14441,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DAB03C4B-2228-40D6-98A6-923D6A8DB9A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{31742E20-3F35-4B7D-9BCE-ADBF42CDEF5F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CBC5173A-C1D7-4E3F-829D-D2093DDCCF07}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D80CE075-A480-4AFF-96D0-DC0802B74ADC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E608C83-4E01-4B1F-8B68-989520A88985}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CD1405D1-8B7B-4F38-8B65-2A90C1ACE7D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D41EB55F-DE32-4776-93C6-114691AF6D66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A6EE7403-4C17-4A80-ABB2-4C089B0AAD8A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C22A1F93-A137-4F29-8403-D76F59EEA270}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{049FF2B3-A0AF-42D0-AB17-C158E42266AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E2C5F1E9-6D83-441A-9FC4-D52662DC55E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E1CAB67A-1375-490D-993E-788C87C5ECC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D116A682-8C76-4E77-B52B-483DDB5DA2A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2A6BC066-B2F9-46CF-BFFC-60C2542ED381}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2A29DFD4-B786-4210-8192-FFA4BF268DEB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BF746BA4-33D0-4E5B-B574-D9DC62668BF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{461CC9AE-607F-4647-B1E1-058159F83C31}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3D794909-EBB2-4921-9CD8-B821C1B964D1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{71ACAF0A-52FD-407C-AA80-BC19CADDEB0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8C252B40-5AD3-4075-A2AD-82943EABFA6C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8CB49536-E74B-4C8C-B7DA-FA15E0001C6D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{95BCF988-5A90-4D93-BFEF-48C584B421FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8DD3C6B4-AD65-4653-A558-4023E0F3A879}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2005FF41-AA03-4A23-867D-57FCDA14C67B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14465,7 +14465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D9332B-2C1C-41C6-843E-A9E740C8AAE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AF344-5DA4-4099-9BD9-0D8BCBF65B66}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15640,18 +15640,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0E4D5A9F-3018-452A-8ABD-D67C70021867}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0EDE42E1-22DE-4F25-BCA7-0F3D39D3979B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E0C0E5CE-A8A1-4696-98E2-84CC1E6009AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3A42BF59-90AB-478A-9C05-F2703E638BB0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A2A4708B-805A-44C6-922C-BC72E49B4BE8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F80DC6C4-504C-441B-B99A-0F43496CDCDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3ACBF282-1C12-47A6-B379-3D230848F498}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9D07AF70-C098-44AD-8600-0DC18F0AB5ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F3CB5E5A-02BF-406E-B642-78C0551ADD06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1BAD9386-BFC8-4D5F-AD8A-B4097B7795D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3976E482-3F4C-4F98-B6CA-99D995E70008}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{922ED630-0414-426F-B776-8AD2647163B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{89EB0E01-5B45-4E71-A42D-3D5863D376C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{447D1FB0-D328-4968-B67C-E57F366ABB7B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E4DC992A-5FCF-4B1D-9518-0FB04EFEB77A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{24237692-3DE9-4024-BA7D-485A9FB2DC3A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B9893496-F314-44AD-8A49-625BC933A864}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{417B2B01-AB34-496C-9636-E2A3CFC97C68}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{03E71F74-C94E-4680-8E78-88DFB493C8C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CDCD4F5C-A55D-43FB-9962-F557E2823E1E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A3C0407-1C3C-4E09-B1B1-FF53B9FA02A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{23B00B39-DCFD-4133-91FB-59AA1978B0BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C03CC205-0351-41E6-8051-31BA4B5A836B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{30C692CC-87B9-43BA-868A-9B1DA09680D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
